--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Okta Nitip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C2B4E-F616-4BBF-9401-6CBE2B7F3E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56662508-E987-4271-BD9B-CB9AE5A0AA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0091E07C-5ABA-478E-AE23-C23A0B241B61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>mar</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>hasil mad</t>
+  </si>
+  <si>
+    <t>ket : total |at-ft| dibagi lama periode yang terlibat</t>
+  </si>
+  <si>
+    <t>peramalan didapat dari hasil peramalan yang didapat dari proses sebelumnya</t>
+  </si>
+  <si>
+    <t>at : penjualan, ft : peramalan</t>
+  </si>
+  <si>
+    <t>&lt;-- inget ganti bagian ini</t>
   </si>
 </sst>
 </file>
@@ -109,15 +121,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,11 +143,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80CE0F2-757B-4D56-95FA-A93D6BC6AB43}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,14 +521,14 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>-3</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>-30</v>
+        <v>-9</v>
       </c>
       <c r="E2">
         <f>C2^2</f>
@@ -506,14 +540,14 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>-2</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E7" si="1">C3^2</f>
@@ -525,14 +559,14 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -544,14 +578,14 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -563,14 +597,14 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -582,14 +616,14 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -599,11 +633,11 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <f>SUM(D2:D7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f>SUM(E2:E7)</f>
@@ -622,7 +656,7 @@
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>B8/6</f>
-        <v>7.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -640,7 +674,7 @@
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>D8/E8</f>
-        <v>0.17857142857142858</v>
+        <v>0.25</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>12</v>
@@ -659,7 +693,7 @@
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>A12+(A15*4)</f>
-        <v>8.2142857142857135</v>
+        <v>4.3333333333333339</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>15</v>
@@ -697,17 +731,20 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <f>B22-C22</f>
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,17 +752,17 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:D27" si="2">B23-C23</f>
-        <v>-3</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
+        <v>-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,17 +770,17 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,17 +788,17 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -769,17 +806,17 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,34 +824,45 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28">
         <f>SUM(E22:E27)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>E28/6</f>
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
